--- a/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,37 +729,37 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,69</t>
+          <t>0,21; 1,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,64</t>
+          <t>0,53; 5,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,5</t>
+          <t>0,87; 3,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,23</t>
+          <t>0,48; 6,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,07</t>
+          <t>0,66; 2,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,31</t>
+          <t>0,13; 1,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,23</t>
+          <t>0,79; 4,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,14</t>
+          <t>0,12; 1,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,87</t>
+          <t>0,71; 2,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,77</t>
+          <t>0,32; 1,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,08</t>
+          <t>0,3; 2,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,16</t>
+          <t>0,31; 2,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,35</t>
+          <t>0,35; 2,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,78</t>
+          <t>1,39; 4,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,83</t>
+          <t>0,14; 0,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,1</t>
+          <t>0,66; 2,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,57</t>
+          <t>0,46; 1,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,36</t>
+          <t>1,15; 3,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,05</t>
+          <t>0,25; 2,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,66</t>
+          <t>0,55; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,14</t>
+          <t>0,13; 1,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,55</t>
+          <t>0,43; 2,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,16</t>
+          <t>0,44; 2,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,78</t>
+          <t>1,81; 4,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,19</t>
+          <t>0,56; 2,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,13</t>
+          <t>1,72; 4,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,74</t>
+          <t>0,45; 1,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,1</t>
+          <t>1,47; 3,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,37</t>
+          <t>0,37; 1,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,92</t>
+          <t>1,39; 2,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,33</t>
+          <t>0,79; 3,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,78</t>
+          <t>1,01; 4,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,29</t>
+          <t>0,44; 2,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,71</t>
+          <t>1,94; 4,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,06</t>
+          <t>0,77; 3,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,31</t>
+          <t>1,54; 4,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,57</t>
+          <t>0,64; 2,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,31</t>
+          <t>2,13; 4,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,72</t>
+          <t>1,06; 2,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,43</t>
+          <t>1,53; 3,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,13</t>
+          <t>0,67; 2,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,96</t>
+          <t>2,34; 4,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,3</t>
+          <t>1,24; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,32</t>
+          <t>0,62; 3,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,31</t>
+          <t>1,53; 4,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,48</t>
+          <t>0,61; 3,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,0</t>
+          <t>1,01; 4,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,62</t>
+          <t>1,26; 4,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,52</t>
+          <t>1,38; 3,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,99</t>
+          <t>0,5; 2,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,57</t>
+          <t>1,42; 3,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,18</t>
+          <t>1,08; 3,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,38</t>
+          <t>1,75; 3,37</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,71</t>
+          <t>1,09; 3,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,27</t>
+          <t>1,76; 5,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,36</t>
+          <t>0,61; 2,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,21</t>
+          <t>1,93; 4,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>0,89; 3,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,15</t>
+          <t>0,97; 3,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,07</t>
+          <t>1,49; 4,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 40,52</t>
+          <t>3,47; 35,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,85</t>
+          <t>1,2; 2,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,43</t>
+          <t>1,62; 3,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,88</t>
+          <t>1,31; 3,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,16; 30,01</t>
+          <t>3,2; 28,09</t>
         </is>
       </c>
     </row>
@@ -1564,52 +1564,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,31</t>
+          <t>0,63; 1,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,44</t>
+          <t>1,41; 2,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,31</t>
+          <t>0,64; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,94</t>
+          <t>1,82; 2,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,56</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,59</t>
+          <t>1,65; 2,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,11</t>
+          <t>1,17; 2,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,62</t>
+          <t>2,78; 15,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,28</t>
+          <t>0,77; 1,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,31</t>
+          <t>1,65; 2,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,44</t>
+          <t>2,54; 9,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,44</t>
+          <t>0,51; 5,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,6</t>
+          <t>0,48; 6,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,45</t>
+          <t>0,77; 4,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,82</t>
+          <t>0,25; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,88</t>
+          <t>1,26; 4,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,81</t>
+          <t>0,15; 0,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,18</t>
+          <t>1,11; 3,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,45</t>
+          <t>0,46; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,17</t>
+          <t>0,58; 2,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,16</t>
+          <t>1,61; 4,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,32</t>
+          <t>0,43; 1,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,84</t>
+          <t>1,35; 2,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,88</t>
+          <t>0,89; 3,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,08</t>
+          <t>0,95; 3,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,28</t>
+          <t>2,0; 4,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,71</t>
+          <t>1,13; 2,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,07</t>
+          <t>1,55; 3,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,31</t>
+          <t>1,27; 3,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,37</t>
+          <t>1,72; 3,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>23,21%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,73</t>
+          <t>0,32; 2,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,16</t>
+          <t>1,32; 5,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,45</t>
+          <t>0,84; 3,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,09</t>
+          <t>1,53; 4,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,0</t>
+          <t>0,52; 3,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,11</t>
+          <t>0,27; 3,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,01</t>
+          <t>1,28; 4,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 35,85</t>
+          <t>2,62; 76,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,86</t>
+          <t>0,59; 2,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,57</t>
+          <t>1,12; 3,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,0</t>
+          <t>1,27; 3,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 28,09</t>
+          <t>2,56; 65,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,59; 7,3</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 6,98</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,22</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 5,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 4,64</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 4,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 4,77</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 6,29</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 4,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 4,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 3,17</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 5,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,63; 1,35</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,41; 2,43</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,64; 1,32</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 2,9</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 1,57</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 2,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 1,64</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,65; 2,62</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,05</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 15,34</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,27</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,09</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 24,34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 1,31</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,65; 2,34</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 1,57</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 9,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 1,58</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 14,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,57 +730,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,64</t>
+          <t>0,21; 1,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,63</t>
+          <t>0,43; 6,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,59</t>
+          <t>0,86; 3,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,38</t>
+          <t>0,37; 5,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,51</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,29</t>
+          <t>0,65; 2,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,35</t>
+          <t>0,13; 1,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,38</t>
+          <t>0,77; 4,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,13</t>
+          <t>0,12; 1,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,9</t>
+          <t>0,73; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,79</t>
+          <t>0,31; 1,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,74</t>
+          <t>0,26; 2,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,15; 1,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,33</t>
+          <t>0,31; 2,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,05</t>
+          <t>0,34; 2,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,92</t>
+          <t>1,27; 4,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,88</t>
+          <t>0,15; 0,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,06</t>
+          <t>0,73; 2,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,57</t>
+          <t>0,49; 1,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,17</t>
+          <t>1,01; 3,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,06</t>
+          <t>0,25; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,8</t>
+          <t>0,57; 2,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,24</t>
+          <t>0,13; 1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,44</t>
+          <t>0,44; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,0</t>
+          <t>0,45; 2,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,57</t>
+          <t>1,91; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,33</t>
+          <t>0,59; 2,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,07</t>
+          <t>1,66; 3,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,66</t>
+          <t>0,51; 1,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,15</t>
+          <t>1,43; 3,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,43</t>
+          <t>0,49; 1,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,76</t>
+          <t>1,32; 2,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,36</t>
+          <t>0,8; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,07</t>
+          <t>1,05; 3,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,29</t>
+          <t>0,44; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,78</t>
+          <t>0,79; 3,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,36</t>
+          <t>0,95; 3,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,21</t>
+          <t>1,46; 4,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,54</t>
+          <t>0,69; 2,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,1</t>
+          <t>2,01; 4,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,77</t>
+          <t>1,11; 2,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,38</t>
+          <t>1,48; 3,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,01</t>
+          <t>0,73; 2,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,52</t>
+          <t>1,46; 3,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,49</t>
+          <t>1,22; 4,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,13</t>
+          <t>0,63; 3,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,27</t>
+          <t>1,66; 4,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,4</t>
+          <t>0,55; 3,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,3</t>
+          <t>0,95; 3,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,53</t>
+          <t>1,11; 4,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,13</t>
+          <t>1,32; 3,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,06</t>
+          <t>0,49; 2,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,51</t>
+          <t>1,49; 3,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,13</t>
+          <t>1,11; 3,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,26</t>
+          <t>1,67; 3,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,86</t>
+          <t>0,32; 2,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,77</t>
+          <t>1,54; 5,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,48</t>
+          <t>0,6; 3,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,32</t>
+          <t>1,43; 4,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,19</t>
+          <t>0,52; 2,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,08</t>
+          <t>0,28; 3,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,76</t>
+          <t>1,29; 4,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 76,1</t>
+          <t>2,56; 72,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,29</t>
+          <t>0,58; 2,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,54</t>
+          <t>1,07; 3,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,67</t>
+          <t>1,23; 3,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 65,42</t>
+          <t>2,5; 57,83</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,3</t>
+          <t>1,22; 6,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,98</t>
+          <t>1,34; 6,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,36</t>
+          <t>1,84; 5,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,64</t>
+          <t>0,81; 4,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,73</t>
+          <t>1,13; 4,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,77</t>
+          <t>1,22; 4,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,29</t>
+          <t>3,34; 6,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,18</t>
+          <t>1,5; 4,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,61</t>
+          <t>1,63; 4,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,17</t>
+          <t>0,92; 3,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,29</t>
+          <t>3,03; 5,31</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,35</t>
+          <t>0,6; 1,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,43</t>
+          <t>1,34; 2,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,32</t>
+          <t>0,66; 1,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,75</t>
+          <t>1,61; 2,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,64</t>
+          <t>0,85; 1,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,62</t>
+          <t>1,64; 2,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,09</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 24,34</t>
+          <t>2,67; 25,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,31</t>
+          <t>0,81; 1,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,34</t>
+          <t>1,63; 2,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,58</t>
+          <t>1,02; 1,58</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 14,72</t>
+          <t>2,33; 15,07</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8349</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7715</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6092</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10596</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4393</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14440</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>931; 8279</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8262</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1714; 24047</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5542</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3707; 14351</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6439</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1167; 18246</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5641</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5728; 17857</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1086; 11600</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5486; 32117</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2982</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10413</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4761</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2989</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5682</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5706</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13657</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5971</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16095</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10467</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>884; 8090</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5027; 19325</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1827; 9757</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1080; 12401</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>956; 8017</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1888; 12784</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1944; 12361</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6501; 25160</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1993; 11503</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9481; 28089</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5687; 18174</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9423; 29664</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5381</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8597</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6344</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7289</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21561</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8520</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15399</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12670</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30158</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11332</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21744</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1616; 13350</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3881; 18352</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>891; 7430</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2383; 13234</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3096; 14898</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13554; 32785</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3904; 15250</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9843; 23470</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6828; 22922</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19957; 43953</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6462; 19663</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14910; 31168</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12634</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20353</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9932</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15886</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9226</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20744</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18750</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28519</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16358</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41097</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4137; 16792</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6483; 24269</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2815; 14573</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7020; 35033</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4904; 17055</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8969; 24813</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4475; 16757</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14341; 29725</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11504; 29757</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18189; 41902</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9457; 26375</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23392; 55281</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10756</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7226</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14961</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6441</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9866</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11962</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8424</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20622</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19188</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26563</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6102</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5224; 18638</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2997; 16922</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9307; 24248</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2216; 12809</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4256; 17837</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5535; 22488</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7245; 17426</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3893; 15860</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13112; 31451</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10780; 30849</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18575; 36207</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3654</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9696</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5840</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9774</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9929</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>216866</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8218</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13481</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15769</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>226640</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>943; 8144</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4761; 18437</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2000; 11722</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5248; 15898</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1799; 10251</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>977; 10998</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4883; 17855</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15568; 442748</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3712; 14709</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7093; 21969</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8749; 25704</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24431; 564763</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6922</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8534</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9055</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7278</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10043</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19869</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14200</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>18254</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>11684</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>28924</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2570; 14345</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3337; 17206</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5753</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5194; 15065</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2716; 15312</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4387; 16991</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4890; 19533</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14242; 26618</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8181; 23612</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>10394; 29221</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6045; 20467</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>21488; 37593</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>29741</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>63511</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>31901</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>72985</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>39476</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>74215</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>57288</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>304229</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>69216</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>137726</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>89190</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>377213</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19763; 41995</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>46068; 81624</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>22447; 45701</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>55572; 96163</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>28622; 53787</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>58274; 95142</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>43518; 74307</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>99266; 948285</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>53688; 87187</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>113673; 164089</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>70551; 109519</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>166849; 1081122</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>